--- a/Admin/Buyer/Manual testcases/New Buyer Company.xlsx
+++ b/Admin/Buyer/Manual testcases/New Buyer Company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Buyer\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7380D54-DC45-417C-84CA-0AD9D990AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D07BB-758E-45AA-BDDA-8447C63AC915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,16 +176,107 @@
 Line 2: Suburb or City + 2 or 3-letter State and 4-digit post code, for example: Southbank, VIC 1234</t>
   </si>
   <si>
+    <t>Company Registrations Number (O)</t>
+  </si>
+  <si>
+    <t>It should accept in the alphabet value, numberic number and special character</t>
+  </si>
+  <si>
+    <t>It should accept in the alphabet value, numberic number and special character and Use this field for UEN (singapore)/ABN (Australia)</t>
+  </si>
+  <si>
+    <t>Tax registrations number (O)</t>
+  </si>
+  <si>
+    <t>ACRA certificate (O)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The image should be displayed in Edit company page Under a new </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"ACRA Certificate " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>image upload field</t>
+    </r>
+  </si>
+  <si>
+    <t>Logo (O)</t>
+  </si>
+  <si>
+    <t>In the Logo,click in the Browse text box and upload the image JPEG, PNG files only - max 5MB</t>
+  </si>
+  <si>
+    <t>Company email (O)</t>
+  </si>
+  <si>
+    <t>Enter the Company email and manage the email address</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should display the Checkbox of This is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> buyer, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Market dropdown, Company name, Address, Company Registrations Number (O), Tax registrations number (O), ACRA certificate (O), Logo (O), Company email (O), Company phone (O), Additional payment options, Cancel ,Save company and Save company and create new outlet</t>
+    </r>
+  </si>
+  <si>
+    <t>Company phone (O)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company phone number and it should accept like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Address formate &gt; Australia</t>
+      <t>+61</t>
     </r>
     <r>
       <rPr>
@@ -195,146 +286,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>….</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional payment options</t>
+  </si>
+  <si>
+    <t>1.FinaxarPay 2. Funding Societies 3. GrabFinance - avaible credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel </t>
+  </si>
+  <si>
+    <t>Save company</t>
+  </si>
+  <si>
+    <t>Save company and create new outlet</t>
+  </si>
+  <si>
+    <t>Once click on the Save button and then it becomes Company details updated …In blue color</t>
+  </si>
+  <si>
+    <t>Once click the save and create new outlet page …in green color</t>
+  </si>
+  <si>
+    <t>Once click on the Cancel button it redirects to outlets menu on the screen…in red color</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Address &gt; Australia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Company Registrations Number (O)</t>
-  </si>
-  <si>
-    <t>It should accept in the alphabet value, numberic number and special character</t>
-  </si>
-  <si>
-    <t>It should accept in the alphabet value, numberic number and special character and Use this field for UEN (singapore)/ABN (Australia)</t>
-  </si>
-  <si>
-    <t>Tax registrations number (O)</t>
-  </si>
-  <si>
-    <t>ACRA certificate (O)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The image should be displayed in Edit company page Under a new </t>
-    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"ACRA Certificate " </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>image upload field</t>
-    </r>
-  </si>
-  <si>
-    <t>Logo (O)</t>
-  </si>
-  <si>
-    <t>In the Logo,click in the Browse text box and upload the image JPEG, PNG files only - max 5MB</t>
-  </si>
-  <si>
-    <t>Company email (O)</t>
-  </si>
-  <si>
-    <t>Enter the Company email and manage the email address</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should display the Checkbox of This is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Passive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> buyer, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Market dropdown, Company name, Address, Company Registrations Number (O), Tax registrations number (O), ACRA certificate (O), Logo (O), Company email (O), Company phone (O), Additional payment options, Cancel ,Save company and Save company and create new outlet</t>
-    </r>
-  </si>
-  <si>
-    <t>Company phone (O)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Company phone number and it should accept like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>….</t>
-    </r>
-  </si>
-  <si>
-    <t>Additional payment options</t>
-  </si>
-  <si>
-    <t>1.FinaxarPay 2. Funding Societies 3. GrabFinance - avaible credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel </t>
-  </si>
-  <si>
-    <t>Save company</t>
-  </si>
-  <si>
-    <t>Save company and create new outlet</t>
-  </si>
-  <si>
-    <t>Once click on the Save button and then it becomes Company details updated …In blue color</t>
-  </si>
-  <si>
-    <t>Once click the save and create new outlet page …in green color</t>
-  </si>
-  <si>
-    <t>Once click on the Cancel button it redirects to outlets menu on the screen…in red color</t>
+      <t>formate</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -499,13 +510,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -945,10 +956,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,10 +990,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,10 +1024,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,10 +1058,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,10 +1109,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Admin/Buyer/Manual testcases/New Buyer Company.xlsx
+++ b/Admin/Buyer/Manual testcases/New Buyer Company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Buyer\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D07BB-758E-45AA-BDDA-8447C63AC915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AE2D59-FD21-4C8B-BED3-3A0FFD180254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>SL. No</t>
   </si>
@@ -172,180 +172,186 @@
     </r>
   </si>
   <si>
+    <t>Company Registrations Number (O)</t>
+  </si>
+  <si>
+    <t>It should accept in the alphabet value, numberic number and special character</t>
+  </si>
+  <si>
+    <t>It should accept in the alphabet value, numberic number and special character and Use this field for UEN (singapore)/ABN (Australia)</t>
+  </si>
+  <si>
+    <t>Tax registrations number (O)</t>
+  </si>
+  <si>
+    <t>ACRA certificate (O)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The image should be displayed in Edit company page Under a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"ACRA Certificate " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>image upload field</t>
+    </r>
+  </si>
+  <si>
+    <t>Logo (O)</t>
+  </si>
+  <si>
+    <t>In the Logo,click in the Browse text box and upload the image JPEG, PNG files only - max 5MB</t>
+  </si>
+  <si>
+    <t>Company email (O)</t>
+  </si>
+  <si>
+    <t>Enter the Company email and manage the email address</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should display the Checkbox of This is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> buyer, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Market dropdown, Company name, Address, Company Registrations Number (O), Tax registrations number (O), ACRA certificate (O), Logo (O), Company email (O), Company phone (O), Additional payment options, Cancel ,Save company and Save company and create new outlet</t>
+    </r>
+  </si>
+  <si>
+    <t>Company phone (O)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company phone number and it should accept like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>….</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional payment options</t>
+  </si>
+  <si>
+    <t>1.FinaxarPay 2. Funding Societies 3. GrabFinance - avaible credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel </t>
+  </si>
+  <si>
+    <t>Save company</t>
+  </si>
+  <si>
+    <t>Save company and create new outlet</t>
+  </si>
+  <si>
+    <t>Once click on the Save button and then it becomes Company details updated …In blue color</t>
+  </si>
+  <si>
+    <t>Once click the save and create new outlet page …in green color</t>
+  </si>
+  <si>
+    <t>Once click on the Cancel button it redirects to outlets menu on the screen…in red color</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Address &gt; Australia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formate</t>
+    </r>
+  </si>
+  <si>
     <t>Line 1: Street name and number (and building name, if available)
-Line 2: Suburb or City + 2 or 3-letter State and 4-digit post code, for example: Southbank, VIC 1234</t>
-  </si>
-  <si>
-    <t>Company Registrations Number (O)</t>
-  </si>
-  <si>
-    <t>It should accept in the alphabet value, numberic number and special character</t>
-  </si>
-  <si>
-    <t>It should accept in the alphabet value, numberic number and special character and Use this field for UEN (singapore)/ABN (Australia)</t>
-  </si>
-  <si>
-    <t>Tax registrations number (O)</t>
-  </si>
-  <si>
-    <t>ACRA certificate (O)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The image should be displayed in Edit company page Under a new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"ACRA Certificate " </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>image upload field</t>
-    </r>
-  </si>
-  <si>
-    <t>Logo (O)</t>
-  </si>
-  <si>
-    <t>In the Logo,click in the Browse text box and upload the image JPEG, PNG files only - max 5MB</t>
-  </si>
-  <si>
-    <t>Company email (O)</t>
-  </si>
-  <si>
-    <t>Enter the Company email and manage the email address</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should display the Checkbox of This is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Passive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> buyer, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Market dropdown, Company name, Address, Company Registrations Number (O), Tax registrations number (O), ACRA certificate (O), Logo (O), Company email (O), Company phone (O), Additional payment options, Cancel ,Save company and Save company and create new outlet</t>
-    </r>
-  </si>
-  <si>
-    <t>Company phone (O)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Company phone number and it should accept like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>….</t>
-    </r>
-  </si>
-  <si>
-    <t>Additional payment options</t>
-  </si>
-  <si>
-    <t>1.FinaxarPay 2. Funding Societies 3. GrabFinance - avaible credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel </t>
-  </si>
-  <si>
-    <t>Save company</t>
-  </si>
-  <si>
-    <t>Save company and create new outlet</t>
-  </si>
-  <si>
-    <t>Once click on the Save button and then it becomes Company details updated …In blue color</t>
-  </si>
-  <si>
-    <t>Once click the save and create new outlet page …in green color</t>
-  </si>
-  <si>
-    <t>Once click on the Cancel button it redirects to outlets menu on the screen…in red color</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Address &gt; Australia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>formate</t>
-    </r>
+Line 2: Suburb or City + 2 or 3-letter State and 4-digit Postcode, for example: Southbank, VIC 1234</t>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>For Australia no need ACRA certifiacte</t>
   </si>
 </sst>
 </file>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +931,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,10 +951,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,10 +974,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,10 +994,16 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,10 +1017,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,10 +1040,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,10 +1063,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1103,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>39</v>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,10 +1126,16 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,10 +1149,16 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,10 +1172,16 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
